--- a/ferry/Staten Island Ferry Passenger Counts - by Month/2020/SIF Monthly Ridership_2020_06.xlsx
+++ b/ferry/Staten Island Ferry Passenger Counts - by Month/2020/SIF Monthly Ridership_2020_06.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Ridership Statistics\Staten Island Ferry\2020\Monthly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Y_Ma2\Desktop\GITHUB\td-trends\ferry\Staten Island Ferry Passenger Counts - by Month\2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F29AFEE-BD97-4CC2-8B47-DE7F9B02C6C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12420" activeTab="1"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TOTAL" sheetId="1" r:id="rId1"/>
+    <sheet name="TOTALS" sheetId="1" r:id="rId1"/>
     <sheet name="WEEKDAY-WEEKEND" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>DAY</t>
   </si>
@@ -68,11 +77,14 @@
   <si>
     <t>TOTAL RIDERHIP</t>
   </si>
+  <si>
+    <t>Date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -333,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -417,12 +429,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -452,6 +458,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -732,690 +741,688 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="6" width="12.7109375" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="6" width="12.6640625" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="26">
+    <row r="3" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="26">
         <v>44002</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="28"/>
-    </row>
-    <row r="4" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="15" t="s">
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="28"/>
+    </row>
+    <row r="5" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F5" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="21" t="str">
-        <f>CHOOSE(WEEKDAY(C5),"SUN","MON","TUE","WED","THU","FRI","SAT")</f>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="21" t="str">
+        <f>CHOOSE(WEEKDAY(C6),"SUN","MON","TUE","WED","THU","FRI","SAT")</f>
         <v>MON</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C6" s="6">
         <v>43983</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D6" s="7">
         <v>6280</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E6" s="7">
         <v>5815</v>
       </c>
-      <c r="F5" s="22">
-        <f>SUM(D5:E5)</f>
+      <c r="F6" s="22">
+        <f>SUM(D6:E6)</f>
         <v>12095</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="21" t="str">
-        <f t="shared" ref="B6:B34" si="0">CHOOSE(WEEKDAY(C6),"SUN","MON","TUE","WED","THU","FRI","SAT")</f>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="21" t="str">
+        <f t="shared" ref="B7:B35" si="0">CHOOSE(WEEKDAY(C7),"SUN","MON","TUE","WED","THU","FRI","SAT")</f>
         <v>TUE</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C7" s="6">
         <v>43984</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D7" s="7">
         <v>6462</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E7" s="7">
         <v>5482</v>
       </c>
-      <c r="F6" s="22">
-        <f t="shared" ref="F6:F34" si="1">SUM(D6:E6)</f>
+      <c r="F7" s="22">
+        <f t="shared" ref="F7:F35" si="1">SUM(D7:E7)</f>
         <v>11944</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="21" t="str">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="21" t="str">
         <f t="shared" si="0"/>
         <v>WED</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C8" s="6">
         <v>43985</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D8" s="7">
         <v>5678</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E8" s="7">
         <v>5359</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F8" s="22">
         <f t="shared" si="1"/>
         <v>11037</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="21" t="str">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="21" t="str">
         <f t="shared" si="0"/>
         <v>THU</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C9" s="6">
         <v>43986</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D9" s="7">
         <v>6006</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E9" s="7">
         <v>5621</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F9" s="22">
         <f t="shared" si="1"/>
         <v>11627</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="21" t="str">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="21" t="str">
         <f t="shared" si="0"/>
         <v>FRI</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C10" s="6">
         <v>43987</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D10" s="7">
         <v>5697</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E10" s="7">
         <v>5423</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F10" s="22">
         <f t="shared" si="1"/>
         <v>11120</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="21" t="str">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="21" t="str">
         <f t="shared" si="0"/>
         <v>SAT</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C11" s="6">
         <v>43988</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D11" s="7">
         <v>4449</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E11" s="7">
         <v>4104</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F11" s="22">
         <f t="shared" si="1"/>
         <v>8553</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="21" t="str">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="21" t="str">
         <f t="shared" si="0"/>
         <v>SUN</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C12" s="6">
         <v>43989</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D12" s="7">
         <v>4324</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E12" s="7">
         <v>3926</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F12" s="22">
         <f t="shared" si="1"/>
         <v>8250</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="21" t="str">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="21" t="str">
         <f t="shared" si="0"/>
         <v>MON</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C13" s="6">
         <v>43990</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D13" s="7">
         <v>6938</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E13" s="7">
         <v>6595</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F13" s="22">
         <f t="shared" si="1"/>
         <v>13533</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="21" t="str">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="21" t="str">
         <f t="shared" si="0"/>
         <v>TUE</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C14" s="6">
         <v>43991</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D14" s="7">
         <v>7267</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E14" s="7">
         <v>6794</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F14" s="22">
         <f t="shared" si="1"/>
         <v>14061</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="21" t="str">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="21" t="str">
         <f t="shared" si="0"/>
         <v>WED</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C15" s="6">
         <v>43992</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D15" s="7">
         <v>7526</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E15" s="7">
         <v>7038</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F15" s="22">
         <f t="shared" si="1"/>
         <v>14564</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="21" t="str">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="21" t="str">
         <f t="shared" si="0"/>
         <v>THU</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C16" s="6">
         <v>43993</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D16" s="7">
         <v>6632</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E16" s="7">
         <v>6225</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F16" s="22">
         <f t="shared" si="1"/>
         <v>12857</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="21" t="str">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="21" t="str">
         <f t="shared" si="0"/>
         <v>FRI</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C17" s="6">
         <v>43994</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D17" s="7">
         <v>7785</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E17" s="7">
         <v>7368</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F17" s="22">
         <f t="shared" si="1"/>
         <v>15153</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="21" t="str">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="21" t="str">
         <f t="shared" si="0"/>
         <v>SAT</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C18" s="6">
         <v>43995</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D18" s="7">
         <v>6033</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E18" s="7">
         <v>5420</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F18" s="22">
         <f t="shared" si="1"/>
         <v>11453</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="21" t="str">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="21" t="str">
         <f t="shared" si="0"/>
         <v>SUN</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C19" s="6">
         <v>43996</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D19" s="7">
         <v>5242</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E19" s="7">
         <v>4854</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F19" s="22">
         <f t="shared" si="1"/>
         <v>10096</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="21" t="str">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="21" t="str">
         <f t="shared" si="0"/>
         <v>MON</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C20" s="6">
         <v>43997</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D20" s="7">
         <v>7560</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E20" s="7">
         <v>7197</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F20" s="22">
         <f t="shared" si="1"/>
         <v>14757</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="21" t="str">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="21" t="str">
         <f t="shared" si="0"/>
         <v>TUE</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C21" s="6">
         <v>43998</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D21" s="7">
         <v>7791</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E21" s="7">
         <v>7371</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F21" s="22">
         <f t="shared" si="1"/>
         <v>15162</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="21" t="str">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="21" t="str">
         <f t="shared" si="0"/>
         <v>WED</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C22" s="6">
         <v>43999</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D22" s="7">
         <v>7953</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E22" s="7">
         <v>7497</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F22" s="22">
         <f t="shared" si="1"/>
         <v>15450</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="21" t="str">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="21" t="str">
         <f t="shared" si="0"/>
         <v>THU</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C23" s="6">
         <v>44000</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D23" s="7">
         <v>7828</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E23" s="7">
         <v>7369</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F23" s="22">
         <f t="shared" si="1"/>
         <v>15197</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="21" t="str">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="21" t="str">
         <f t="shared" si="0"/>
         <v>FRI</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C24" s="6">
         <v>44001</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D24" s="7">
         <v>8395</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E24" s="7">
         <v>7968</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F24" s="22">
         <f t="shared" si="1"/>
         <v>16363</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="21" t="str">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="21" t="str">
         <f t="shared" si="0"/>
         <v>SAT</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C25" s="6">
         <v>44002</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D25" s="7">
         <v>6149</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E25" s="7">
         <v>5681</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F25" s="22">
         <f t="shared" si="1"/>
         <v>11830</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="21" t="str">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="21" t="str">
         <f t="shared" si="0"/>
         <v>SUN</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C26" s="6">
         <v>44003</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D26" s="7">
         <v>5773</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E26" s="7">
         <v>4969</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F26" s="22">
         <f t="shared" si="1"/>
         <v>10742</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="21" t="str">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="21" t="str">
         <f t="shared" si="0"/>
         <v>MON</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C27" s="6">
         <v>44004</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D27" s="7">
         <v>8435</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E27" s="7">
         <v>8160</v>
       </c>
-      <c r="F26" s="22">
+      <c r="F27" s="22">
         <f t="shared" si="1"/>
         <v>16595</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="21" t="str">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="21" t="str">
         <f t="shared" si="0"/>
         <v>TUE</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C28" s="6">
         <v>44005</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D28" s="7">
         <v>8675</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E28" s="7">
         <v>8096</v>
       </c>
-      <c r="F27" s="22">
+      <c r="F28" s="22">
         <f t="shared" si="1"/>
         <v>16771</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="21" t="str">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="21" t="str">
         <f t="shared" si="0"/>
         <v>WED</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C29" s="6">
         <v>44006</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D29" s="7">
         <v>8721</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E29" s="7">
         <v>8231</v>
       </c>
-      <c r="F28" s="22">
+      <c r="F29" s="22">
         <f t="shared" si="1"/>
         <v>16952</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="21" t="str">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="21" t="str">
         <f t="shared" si="0"/>
         <v>THU</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C30" s="6">
         <v>44007</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D30" s="7">
         <v>8927</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E30" s="7">
         <v>8340</v>
       </c>
-      <c r="F29" s="22">
+      <c r="F30" s="22">
         <f t="shared" si="1"/>
         <v>17267</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="21" t="str">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="21" t="str">
         <f t="shared" si="0"/>
         <v>FRI</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C31" s="6">
         <v>44008</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D31" s="7">
         <v>9183</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E31" s="7">
         <v>8596</v>
       </c>
-      <c r="F30" s="22">
+      <c r="F31" s="22">
         <f t="shared" si="1"/>
         <v>17779</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="21" t="str">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="21" t="str">
         <f t="shared" si="0"/>
         <v>SAT</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C32" s="6">
         <v>44009</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D32" s="7">
         <v>6118</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E32" s="7">
         <v>5500</v>
       </c>
-      <c r="F31" s="22">
+      <c r="F32" s="22">
         <f t="shared" si="1"/>
         <v>11618</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="21" t="str">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="21" t="str">
         <f t="shared" si="0"/>
         <v>SUN</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C33" s="6">
         <v>44010</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D33" s="7">
         <v>5941</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E33" s="7">
         <v>5336</v>
       </c>
-      <c r="F32" s="22">
+      <c r="F33" s="22">
         <f t="shared" si="1"/>
         <v>11277</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="21" t="str">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="21" t="str">
         <f t="shared" si="0"/>
         <v>MON</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C34" s="6">
         <v>44011</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D34" s="7">
         <v>9047</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E34" s="7">
         <v>8619</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F34" s="22">
         <f t="shared" si="1"/>
         <v>17666</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="21" t="str">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="21" t="str">
         <f t="shared" si="0"/>
         <v>TUE</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C35" s="6">
         <v>44012</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D35" s="7">
         <v>9054</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E35" s="7">
         <v>8470</v>
       </c>
-      <c r="F34" s="22">
+      <c r="F35" s="22">
         <f t="shared" si="1"/>
         <v>17524</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="29" t="s">
+    <row r="36" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="30"/>
-      <c r="D35" s="23">
-        <f>SUM(D5:D34)</f>
+      <c r="D36" s="23">
+        <f>SUM(D6:D35)</f>
         <v>211869</v>
       </c>
-      <c r="E35" s="23">
-        <f>SUM(E5:E34)</f>
+      <c r="E36" s="23">
+        <f>SUM(E6:E35)</f>
         <v>197424</v>
       </c>
-      <c r="F35" s="24">
-        <f>SUM(F5:F34)</f>
+      <c r="F36" s="24">
+        <f>SUM(F6:F35)</f>
         <v>409293</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="31" t="s">
+    <row r="39" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="8">
-        <f>F35</f>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="8">
+        <f>F36</f>
         <v>409293</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B39:E39"/>
+  <mergeCells count="2">
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B40:E40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F5:F34" formulaRange="1"/>
+    <ignoredError sqref="F6:F35" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="7" width="12.7109375" style="2" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.109375" style="2"/>
+    <col min="2" max="7" width="12.6640625" style="2" customWidth="1"/>
+    <col min="8" max="9" width="9.109375" style="2"/>
     <col min="10" max="10" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="2"/>
+    <col min="11" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="38" t="s">
+    <row r="2" spans="2:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
-    </row>
-    <row r="4" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="38"/>
+    </row>
+    <row r="4" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
         <v>0</v>
       </c>
@@ -1433,7 +1440,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="str">
         <f>CHOOSE(WEEKDAY(C5),"SUN","MON","TUE","WED","THU","FRI","SAT")</f>
         <v>MON</v>
@@ -1452,7 +1459,7 @@
         <v>12095</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="17" t="str">
         <f t="shared" ref="B6:B9" si="0">CHOOSE(WEEKDAY(C6),"SUN","MON","TUE","WED","THU","FRI","SAT")</f>
         <v>TUE</v>
@@ -1471,7 +1478,7 @@
         <v>11944</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="str">
         <f t="shared" si="0"/>
         <v>WED</v>
@@ -1490,7 +1497,7 @@
         <v>11037</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="17" t="str">
         <f t="shared" si="0"/>
         <v>THU</v>
@@ -1509,7 +1516,7 @@
         <v>11627</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="17" t="str">
         <f t="shared" si="0"/>
         <v>FRI</v>
@@ -1528,7 +1535,7 @@
         <v>11120</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="17" t="str">
         <f t="shared" ref="B10:B26" si="2">CHOOSE(WEEKDAY(C10),"SUN","MON","TUE","WED","THU","FRI","SAT")</f>
         <v>MON</v>
@@ -1547,7 +1554,7 @@
         <v>13533</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="17" t="str">
         <f t="shared" si="2"/>
         <v>TUE</v>
@@ -1566,7 +1573,7 @@
         <v>14061</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="17" t="str">
         <f t="shared" si="2"/>
         <v>WED</v>
@@ -1585,7 +1592,7 @@
         <v>14564</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="17" t="str">
         <f t="shared" si="2"/>
         <v>THU</v>
@@ -1604,7 +1611,7 @@
         <v>12857</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="17" t="str">
         <f t="shared" si="2"/>
         <v>FRI</v>
@@ -1623,7 +1630,7 @@
         <v>15153</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="17" t="str">
         <f t="shared" si="2"/>
         <v>MON</v>
@@ -1642,7 +1649,7 @@
         <v>14757</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="17" t="str">
         <f t="shared" si="2"/>
         <v>TUE</v>
@@ -1661,7 +1668,7 @@
         <v>15162</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="17" t="str">
         <f t="shared" si="2"/>
         <v>WED</v>
@@ -1680,7 +1687,7 @@
         <v>15450</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="17" t="str">
         <f t="shared" si="2"/>
         <v>THU</v>
@@ -1699,7 +1706,7 @@
         <v>15197</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="17" t="str">
         <f t="shared" si="2"/>
         <v>FRI</v>
@@ -1718,7 +1725,7 @@
         <v>16363</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="17" t="str">
         <f t="shared" si="2"/>
         <v>MON</v>
@@ -1737,7 +1744,7 @@
         <v>16595</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="17" t="str">
         <f t="shared" si="2"/>
         <v>TUE</v>
@@ -1756,7 +1763,7 @@
         <v>16771</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="17" t="str">
         <f t="shared" si="2"/>
         <v>WED</v>
@@ -1775,7 +1782,7 @@
         <v>16952</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="17" t="str">
         <f t="shared" si="2"/>
         <v>THU</v>
@@ -1794,7 +1801,7 @@
         <v>17267</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="17" t="str">
         <f t="shared" si="2"/>
         <v>FRI</v>
@@ -1813,7 +1820,7 @@
         <v>17779</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="17" t="str">
         <f t="shared" si="2"/>
         <v>MON</v>
@@ -1832,7 +1839,7 @@
         <v>17666</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="17" t="str">
         <f t="shared" si="2"/>
         <v>TUE</v>
@@ -1851,11 +1858,11 @@
         <v>17524</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="34" t="s">
+    <row r="27" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="35"/>
+      <c r="C27" s="33"/>
       <c r="D27" s="19">
         <f>SUM(D5:D26)</f>
         <v>167840</v>
@@ -1869,42 +1876,42 @@
         <v>325474</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="36" t="s">
+    <row r="28" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
       <c r="F29" s="11">
         <f>F27</f>
         <v>325474</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="34" t="s">
+    <row r="30" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
       <c r="F30" s="12">
         <f>AVERAGE(F5:F26)</f>
         <v>14794.272727272728</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="38" t="s">
+    <row r="33" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="40"/>
-    </row>
-    <row r="35" spans="2:6" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="38"/>
+    </row>
+    <row r="35" spans="2:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B35" s="20" t="s">
         <v>0</v>
       </c>
@@ -1921,7 +1928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="17" t="str">
         <f t="shared" ref="B36:B43" si="3">CHOOSE(WEEKDAY(C36),"SUN","MON","TUE","WED","THU","FRI","SAT")</f>
         <v>SAT</v>
@@ -1940,7 +1947,7 @@
         <v>8553</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="17" t="str">
         <f t="shared" si="3"/>
         <v>SUN</v>
@@ -1959,7 +1966,7 @@
         <v>8250</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="17" t="str">
         <f t="shared" si="3"/>
         <v>SAT</v>
@@ -1978,7 +1985,7 @@
         <v>11453</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="17" t="str">
         <f t="shared" si="3"/>
         <v>SUN</v>
@@ -1997,7 +2004,7 @@
         <v>10096</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="17" t="str">
         <f t="shared" si="3"/>
         <v>SAT</v>
@@ -2016,7 +2023,7 @@
         <v>11830</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="17" t="str">
         <f t="shared" si="3"/>
         <v>SUN</v>
@@ -2035,7 +2042,7 @@
         <v>10742</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="17" t="str">
         <f t="shared" si="3"/>
         <v>SAT</v>
@@ -2054,7 +2061,7 @@
         <v>11618</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="17" t="str">
         <f t="shared" si="3"/>
         <v>SUN</v>
@@ -2073,11 +2080,11 @@
         <v>11277</v>
       </c>
     </row>
-    <row r="44" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="34" t="s">
+    <row r="44" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="35"/>
+      <c r="C44" s="33"/>
       <c r="D44" s="19">
         <f>SUM(D36:D43)</f>
         <v>44029</v>
@@ -2091,32 +2098,32 @@
         <v>83819</v>
       </c>
     </row>
-    <row r="45" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="36" t="s">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
       <c r="F46" s="25">
         <f>AVERAGE(F36,F38,F40,F42)</f>
         <v>10863.5</v>
       </c>
     </row>
-    <row r="47" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="34" t="s">
+    <row r="47" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
       <c r="F47" s="12">
         <f>AVERAGE(F37,F39,F41,F43)</f>
         <v>10091.25</v>
@@ -2141,6 +2148,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010056AE8379B00F7343AA85C9CCF3ABC79C" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ed5a08c4ea4bafe7608c7a0bbf74949">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="670d3029-f9df-404e-98fc-7004dcdec636" xmlns:ns3="5f7ac3ca-9ce0-489a-bc70-1e3f2f642f01" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f6b6dc1f77d7f192bee01dd38b44bce" ns2:_="" ns3:_="">
     <xsd:import namespace="670d3029-f9df-404e-98fc-7004dcdec636"/>
@@ -2319,29 +2341,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59A620C9-D387-435F-B6EC-B59C85BDE0AA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53AE0AFE-4722-471D-A63B-3AF3B6A05725}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A468CDE8-B9AD-452A-9D11-CD558BCA3E02}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A468CDE8-B9AD-452A-9D11-CD558BCA3E02}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53AE0AFE-4722-471D-A63B-3AF3B6A05725}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59A620C9-D387-435F-B6EC-B59C85BDE0AA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="670d3029-f9df-404e-98fc-7004dcdec636"/>
+    <ds:schemaRef ds:uri="5f7ac3ca-9ce0-489a-bc70-1e3f2f642f01"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>